--- a/medicine/Enfance/Emmanuel_Aquin/Emmanuel_Aquin.xlsx
+++ b/medicine/Enfance/Emmanuel_Aquin/Emmanuel_Aquin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emmanuel Aquin, né à Montréal le 27 janvier 1968, est un romancier, scénariste, éditeur, graphiste et illustrateur québécois. Il est le fils d'Hubert Aquin et d'Andrée Yanacopoulo.
 Il a publié 11 romans en français au Québec, dans plusieurs genres. Il est le cofondateur des éditions Point de Fuite.
@@ -514,18 +526,91 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Romans
-Incarnations (Boréal, 1990)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Incarnations (Boréal, 1990)
 Désincarnations (Boréal, 1991)
 Réincarnations (Boréal, 1992)
 Icare (Boréal, 1995)
 Prométhée (Leméac, 2005)
-Phénix (Leméac, 2008)
-Littérature d'enfance et de jeunesse
-Le Sandwich au nilou-nilou (Boréal, 1996)
-Le Pigeon-doudou (Boréal, 1997)
-Romans et textes érotiques
-La Salamandre : un livre dont vous êtes l'éros (Point de Fuite, 2000)
+Phénix (Leméac, 2008)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Emmanuel_Aquin</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emmanuel_Aquin</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Sandwich au nilou-nilou (Boréal, 1996)
+Le Pigeon-doudou (Boréal, 1997)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Emmanuel_Aquin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emmanuel_Aquin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans et textes érotiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Salamandre : un livre dont vous êtes l'éros (Point de Fuite, 2000)
 L'Hymne à l'hymen : un livre dont vous êtes l'éros (Point de Fuite, 2000)
 La chambranleuse : sexercices de style (Point de Fuite, 2000)
 La Pingouine : un roman noir (et rose) (Point de Fuite, 2001)
